--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
